--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_13.08.2024_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_13.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -498,18 +498,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>20.544</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20.375</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1690000000000005</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8200000000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -537,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>280.98</v>
+        <v>20.55</v>
       </c>
       <c r="H3" t="n">
-        <v>280.6</v>
+        <v>20.501</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3799999999999955</v>
+        <v>0.04899999999999949</v>
       </c>
       <c r="J3" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -566,7 +574,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -575,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>279.8</v>
+        <v>59.95</v>
       </c>
       <c r="H4" t="n">
-        <v>280.27</v>
+        <v>59.75</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4699999999999704</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="J4" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -593,16 +601,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -611,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>280.5</v>
+        <v>59.57</v>
       </c>
       <c r="H5" t="n">
-        <v>282.9</v>
+        <v>59.78</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.399999999999977</v>
+        <v>0.2100000000000009</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.86</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -649,16 +659,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>280.98</v>
+        <v>59.94</v>
       </c>
       <c r="H6" t="n">
-        <v>280.6</v>
+        <v>59.86</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3799999999999955</v>
+        <v>0.07999999999999829</v>
       </c>
       <c r="J6" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -678,7 +688,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -687,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>279.8</v>
+        <v>60.03</v>
       </c>
       <c r="H7" t="n">
-        <v>280.27</v>
+        <v>59.81</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4699999999999704</v>
+        <v>0.2199999999999989</v>
       </c>
       <c r="J7" t="n">
-        <v>0.17</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8">
@@ -705,7 +715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -716,7 +726,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -725,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>280.5</v>
+        <v>1400</v>
       </c>
       <c r="H8" t="n">
-        <v>281.5</v>
+        <v>1397.8</v>
       </c>
       <c r="I8" t="n">
-        <v>-1</v>
+        <v>-2.200000000000045</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.36</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="9">
@@ -743,7 +753,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -763,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>281.97</v>
+        <v>1402.4</v>
       </c>
       <c r="H9" t="n">
-        <v>281.53</v>
+        <v>1397.4</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4400000000000546</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>0.16</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="10">
@@ -781,7 +791,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -792,7 +802,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -801,16 +811,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>281.33</v>
+        <v>1402.2</v>
       </c>
       <c r="H10" t="n">
-        <v>281.11</v>
+        <v>1400</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2199999999999704</v>
+        <v>2.200000000000045</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.08</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11">
@@ -819,7 +829,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -839,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>281.69</v>
+        <v>12.121</v>
       </c>
       <c r="H11" t="n">
-        <v>281.38</v>
+        <v>12.166</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3100000000000023</v>
+        <v>-0.04499999999999993</v>
       </c>
       <c r="J11" t="n">
-        <v>0.11</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="12">
@@ -857,16 +867,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -875,16 +887,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>281.97</v>
+        <v>12.147</v>
       </c>
       <c r="H12" t="n">
-        <v>283.49</v>
+        <v>12.166</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.519999999999982</v>
+        <v>0.01900000000000013</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.54</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="13">
@@ -1007,16 +1019,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1025,16 +1039,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>129.94</v>
+        <v>126.34</v>
       </c>
       <c r="H16" t="n">
-        <v>129.99</v>
+        <v>128.84</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05000000000001137</v>
+        <v>-2.5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="17">
@@ -1043,7 +1057,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1063,16 +1077,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6430.5</v>
+        <v>128.66</v>
       </c>
       <c r="H17" t="n">
-        <v>6441.5</v>
+        <v>129</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>0.3400000000000034</v>
       </c>
       <c r="J17" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="18">
@@ -1092,7 +1106,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1101,16 +1115,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6448.5</v>
+        <v>6430.5</v>
       </c>
       <c r="H18" t="n">
-        <v>6434.5</v>
+        <v>6441.5</v>
       </c>
       <c r="I18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="19">
@@ -1130,7 +1144,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1139,16 +1153,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6421</v>
+        <v>6448.5</v>
       </c>
       <c r="H19" t="n">
-        <v>6433</v>
+        <v>6434.5</v>
       </c>
       <c r="I19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="20">
@@ -1168,7 +1182,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1177,16 +1191,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6440.5</v>
+        <v>6421</v>
       </c>
       <c r="H20" t="n">
-        <v>6442</v>
+        <v>6433</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.5</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.02</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="21">
@@ -1195,7 +1209,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1215,16 +1229,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>502.95</v>
+        <v>6440.5</v>
       </c>
       <c r="H21" t="n">
-        <v>502.7</v>
+        <v>6442</v>
       </c>
       <c r="I21" t="n">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1247,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1244,7 +1258,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1253,16 +1267,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>501.7</v>
+        <v>50.385</v>
       </c>
       <c r="H22" t="n">
-        <v>503</v>
+        <v>50.2</v>
       </c>
       <c r="I22" t="n">
-        <v>1.300000000000011</v>
+        <v>0.1849999999999952</v>
       </c>
       <c r="J22" t="n">
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="23">
@@ -1271,7 +1285,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1282,7 +1296,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1291,16 +1305,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>503.9</v>
+        <v>50.18</v>
       </c>
       <c r="H23" t="n">
-        <v>502.3</v>
+        <v>50.16</v>
       </c>
       <c r="I23" t="n">
-        <v>1.599999999999966</v>
+        <v>-0.02000000000000313</v>
       </c>
       <c r="J23" t="n">
-        <v>0.32</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="24">
@@ -1309,7 +1323,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -1320,7 +1334,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1329,16 +1343,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>227.16</v>
+        <v>50.17</v>
       </c>
       <c r="H24" t="n">
-        <v>227.24</v>
+        <v>50.155</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08000000000001251</v>
+        <v>0.01500000000000057</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="25">
@@ -1367,16 +1381,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>226.4</v>
+        <v>227.16</v>
       </c>
       <c r="H25" t="n">
-        <v>226.58</v>
+        <v>227.24</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1800000000000068</v>
+        <v>0.08000000000001251</v>
       </c>
       <c r="J25" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="26">
@@ -1405,16 +1419,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>225.35</v>
+        <v>226.4</v>
       </c>
       <c r="H26" t="n">
-        <v>226.14</v>
+        <v>226.58</v>
       </c>
       <c r="I26" t="n">
-        <v>0.789999999999992</v>
+        <v>0.1800000000000068</v>
       </c>
       <c r="J26" t="n">
-        <v>0.35</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="27">
@@ -1429,10 +1443,12 @@
       <c r="C27" t="b">
         <v>1</v>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1441,16 +1457,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>226.58</v>
+        <v>225.35</v>
       </c>
       <c r="H27" t="n">
-        <v>226.9</v>
+        <v>226.14</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.3199999999999932</v>
+        <v>0.789999999999992</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.14</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="28">
@@ -1459,7 +1475,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -1479,16 +1495,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1033</v>
+        <v>153.53</v>
       </c>
       <c r="H28" t="n">
-        <v>1036.2</v>
+        <v>154.26</v>
       </c>
       <c r="I28" t="n">
-        <v>3.200000000000045</v>
+        <v>0.7299999999999898</v>
       </c>
       <c r="J28" t="n">
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="29">
@@ -1497,7 +1513,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1517,16 +1533,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1041</v>
+        <v>154.82</v>
       </c>
       <c r="H29" t="n">
-        <v>1042.6</v>
+        <v>156.08</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.599999999999909</v>
+        <v>-1.260000000000019</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.15</v>
+        <v>-0.8099999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1535,7 +1551,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C30" t="b">
@@ -1555,16 +1571,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1038.6</v>
+        <v>156.16</v>
       </c>
       <c r="H30" t="n">
-        <v>1043.6</v>
+        <v>156.37</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>0.210000000000008</v>
       </c>
       <c r="J30" t="n">
-        <v>0.48</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="31">
@@ -1573,7 +1589,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C31" t="b">
@@ -1593,16 +1609,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1049.6</v>
+        <v>156.83</v>
       </c>
       <c r="H31" t="n">
-        <v>1051.8</v>
+        <v>156.83</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.200000000000045</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1611,7 +1627,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C32" t="b">
@@ -1631,16 +1647,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>12.121</v>
+        <v>163.68</v>
       </c>
       <c r="H32" t="n">
-        <v>12.166</v>
+        <v>164.86</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.04499999999999993</v>
+        <v>-1.180000000000007</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.37</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="33">
@@ -1649,7 +1665,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C33" t="b">
@@ -1669,16 +1685,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>12.147</v>
+        <v>164.76</v>
       </c>
       <c r="H33" t="n">
-        <v>12.166</v>
+        <v>164.92</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01900000000000013</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="J33" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -1687,7 +1703,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C34" t="b">
@@ -1707,16 +1723,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>126.34</v>
+        <v>165.46</v>
       </c>
       <c r="H34" t="n">
-        <v>128.84</v>
+        <v>165.2</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.5</v>
+        <v>0.2600000000000193</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.98</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="35">
@@ -1725,7 +1741,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C35" t="b">
@@ -1745,16 +1761,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>128.66</v>
+        <v>1033</v>
       </c>
       <c r="H35" t="n">
-        <v>129</v>
+        <v>1036.2</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3400000000000034</v>
+        <v>3.200000000000045</v>
       </c>
       <c r="J35" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="36">
@@ -1763,16 +1779,18 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1781,16 +1799,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>128.46</v>
+        <v>1041</v>
       </c>
       <c r="H36" t="n">
-        <v>128</v>
+        <v>1042.6</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.460000000000008</v>
+        <v>-1.599999999999909</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.36</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="37">
@@ -1799,7 +1817,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C37" t="b">
@@ -1810,7 +1828,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1819,16 +1837,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>163.68</v>
+        <v>1038.6</v>
       </c>
       <c r="H37" t="n">
-        <v>164.86</v>
+        <v>1043.6</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.180000000000007</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.72</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="38">
@@ -1837,7 +1855,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -1848,7 +1866,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1857,16 +1875,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>164.76</v>
+        <v>1049.6</v>
       </c>
       <c r="H38" t="n">
-        <v>164.92</v>
+        <v>1051.8</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1599999999999966</v>
+        <v>-2.200000000000045</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="39">
@@ -1875,7 +1893,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C39" t="b">
@@ -1895,16 +1913,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>165.46</v>
+        <v>502.95</v>
       </c>
       <c r="H39" t="n">
-        <v>165.2</v>
+        <v>502.7</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2600000000000193</v>
+        <v>0.25</v>
       </c>
       <c r="J39" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="40">
@@ -1913,7 +1931,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -1924,7 +1942,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1933,16 +1951,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>50.385</v>
+        <v>501.7</v>
       </c>
       <c r="H40" t="n">
-        <v>50.2</v>
+        <v>503</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1849999999999952</v>
+        <v>1.300000000000011</v>
       </c>
       <c r="J40" t="n">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="41">
@@ -1951,7 +1969,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C41" t="b">
@@ -1962,7 +1980,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1971,16 +1989,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>50.18</v>
+        <v>503.9</v>
       </c>
       <c r="H41" t="n">
-        <v>50.16</v>
+        <v>502.3</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.02000000000000313</v>
+        <v>1.599999999999966</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.04</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="42">
@@ -1989,7 +2007,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="C42" t="b">
@@ -2009,16 +2027,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>50.17</v>
+        <v>280.98</v>
       </c>
       <c r="H42" t="n">
-        <v>50.155</v>
+        <v>280.6</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01500000000000057</v>
+        <v>0.3799999999999955</v>
       </c>
       <c r="J42" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="43">
@@ -2027,7 +2045,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="C43" t="b">
@@ -2047,16 +2065,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1400</v>
+        <v>279.8</v>
       </c>
       <c r="H43" t="n">
-        <v>1397.8</v>
+        <v>280.27</v>
       </c>
       <c r="I43" t="n">
-        <v>-2.200000000000045</v>
+        <v>0.4699999999999704</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="44">
@@ -2065,7 +2083,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C44" t="b">
@@ -2085,16 +2103,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1402.4</v>
+        <v>281.97</v>
       </c>
       <c r="H44" t="n">
-        <v>1397.4</v>
+        <v>281.53</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>0.4400000000000546</v>
       </c>
       <c r="J44" t="n">
-        <v>0.36</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="45">
@@ -2103,7 +2121,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C45" t="b">
@@ -2114,7 +2132,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2123,16 +2141,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1402.2</v>
+        <v>281.33</v>
       </c>
       <c r="H45" t="n">
-        <v>1400</v>
+        <v>281.11</v>
       </c>
       <c r="I45" t="n">
-        <v>2.200000000000045</v>
+        <v>-0.2199999999999704</v>
       </c>
       <c r="J45" t="n">
-        <v>0.16</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="46">
@@ -2141,16 +2159,18 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2159,16 +2179,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1397</v>
+        <v>281.69</v>
       </c>
       <c r="H46" t="n">
-        <v>1397.8</v>
+        <v>281.38</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7999999999999545</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="J46" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="47">
@@ -2177,7 +2197,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C47" t="b">
@@ -2197,16 +2217,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>59.95</v>
+        <v>56.45</v>
       </c>
       <c r="H47" t="n">
-        <v>59.75</v>
+        <v>56.4</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2000000000000028</v>
+        <v>0.05000000000000426</v>
       </c>
       <c r="J47" t="n">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="48">
@@ -2215,7 +2235,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C48" t="b">
@@ -2226,7 +2246,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2235,16 +2255,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>59.57</v>
+        <v>56.55</v>
       </c>
       <c r="H48" t="n">
-        <v>59.78</v>
+        <v>56.61</v>
       </c>
       <c r="I48" t="n">
-        <v>0.2100000000000009</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="J48" t="n">
-        <v>0.35</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="49">
@@ -2253,7 +2273,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C49" t="b">
@@ -2273,16 +2293,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>59.94</v>
+        <v>690</v>
       </c>
       <c r="H49" t="n">
-        <v>59.86</v>
+        <v>687.4</v>
       </c>
       <c r="I49" t="n">
-        <v>0.07999999999999829</v>
+        <v>2.600000000000023</v>
       </c>
       <c r="J49" t="n">
-        <v>0.13</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="50">
@@ -2291,7 +2311,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C50" t="b">
@@ -2302,7 +2322,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2311,16 +2331,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>60.03</v>
+        <v>686.5</v>
       </c>
       <c r="H50" t="n">
-        <v>59.81</v>
+        <v>687</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2199999999999989</v>
+        <v>0.5</v>
       </c>
       <c r="J50" t="n">
-        <v>0.37</v>
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -2329,13 +2349,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>long</t>
@@ -2347,16 +2369,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>59.68</v>
+        <v>684.7</v>
       </c>
       <c r="H51" t="n">
-        <v>59.57</v>
+        <v>685.7</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.1099999999999994</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.18</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="52">
@@ -2365,7 +2387,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C52" t="b">
@@ -2385,16 +2407,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>99.25</v>
+        <v>154.98</v>
       </c>
       <c r="H52" t="n">
-        <v>99.13</v>
+        <v>154.5</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1200000000000045</v>
+        <v>0.4799999999999898</v>
       </c>
       <c r="J52" t="n">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="53">
@@ -2403,7 +2425,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C53" t="b">
@@ -2423,16 +2445,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>99.56</v>
+        <v>155</v>
       </c>
       <c r="H53" t="n">
-        <v>99.53</v>
+        <v>154.56</v>
       </c>
       <c r="I53" t="n">
-        <v>0.03000000000000114</v>
+        <v>0.4399999999999977</v>
       </c>
       <c r="J53" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="54">
@@ -2441,7 +2463,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C54" t="b">
@@ -2452,7 +2474,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2461,16 +2483,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>99.42</v>
+        <v>155.48</v>
       </c>
       <c r="H54" t="n">
-        <v>99.61</v>
+        <v>155.32</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1899999999999977</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="J54" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="55">
@@ -2479,7 +2501,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C55" t="b">
@@ -2499,16 +2521,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>99.73999999999999</v>
+        <v>156.7</v>
       </c>
       <c r="H55" t="n">
-        <v>100.22</v>
+        <v>157.1</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.480000000000004</v>
+        <v>-0.4000000000000057</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.48</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="56">
@@ -2517,7 +2539,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C56" t="b">
@@ -2537,16 +2559,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>56.45</v>
+        <v>99.25</v>
       </c>
       <c r="H56" t="n">
-        <v>56.4</v>
+        <v>99.13</v>
       </c>
       <c r="I56" t="n">
-        <v>0.05000000000000426</v>
+        <v>0.1200000000000045</v>
       </c>
       <c r="J56" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="57">
@@ -2555,7 +2577,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C57" t="b">
@@ -2575,16 +2597,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>56.55</v>
+        <v>99.56</v>
       </c>
       <c r="H57" t="n">
-        <v>56.61</v>
+        <v>99.53</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.06000000000000227</v>
+        <v>0.03000000000000114</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.11</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="58">
@@ -2593,7 +2615,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C58" t="b">
@@ -2604,7 +2626,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2613,16 +2635,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>154.98</v>
+        <v>99.42</v>
       </c>
       <c r="H58" t="n">
-        <v>154.5</v>
+        <v>99.61</v>
       </c>
       <c r="I58" t="n">
-        <v>0.4799999999999898</v>
+        <v>0.1899999999999977</v>
       </c>
       <c r="J58" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="59">
@@ -2631,7 +2653,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C59" t="b">
@@ -2651,16 +2673,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>155</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="H59" t="n">
-        <v>154.56</v>
+        <v>100.22</v>
       </c>
       <c r="I59" t="n">
-        <v>0.4399999999999977</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="J59" t="n">
-        <v>0.28</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="60">
@@ -2669,18 +2691,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
-      <c r="D60" t="b">
-        <v>1</v>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2689,16 +2709,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>155.48</v>
+        <v>59.68</v>
       </c>
       <c r="H60" t="n">
-        <v>155.32</v>
+        <v>59.57</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1599999999999966</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="61">
@@ -2707,18 +2727,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2727,16 +2745,16 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>156.7</v>
+        <v>1397</v>
       </c>
       <c r="H61" t="n">
-        <v>157.1</v>
+        <v>1397.8</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.4000000000000057</v>
+        <v>0.7999999999999545</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.26</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="62">
@@ -2745,7 +2763,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C62" t="b">
@@ -2763,16 +2781,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>156.32</v>
+        <v>129.94</v>
       </c>
       <c r="H62" t="n">
-        <v>157.12</v>
+        <v>129.99</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8000000000000114</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="J62" t="n">
-        <v>0.51</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="63">
@@ -2781,18 +2799,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2801,16 +2817,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>20.544</v>
+        <v>128.46</v>
       </c>
       <c r="H63" t="n">
-        <v>20.375</v>
+        <v>128</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1690000000000005</v>
+        <v>-0.460000000000008</v>
       </c>
       <c r="J63" t="n">
-        <v>0.8200000000000001</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="64">
@@ -2819,15 +2835,13 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>short</t>
@@ -2839,16 +2853,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>20.55</v>
+        <v>226.58</v>
       </c>
       <c r="H64" t="n">
-        <v>20.501</v>
+        <v>226.9</v>
       </c>
       <c r="I64" t="n">
-        <v>0.04899999999999949</v>
+        <v>-0.3199999999999932</v>
       </c>
       <c r="J64" t="n">
-        <v>0.24</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="65">
@@ -2857,18 +2871,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2877,16 +2889,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>690</v>
+        <v>156.08</v>
       </c>
       <c r="H65" t="n">
-        <v>687.4</v>
+        <v>156.16</v>
       </c>
       <c r="I65" t="n">
-        <v>2.600000000000023</v>
+        <v>0.07999999999998408</v>
       </c>
       <c r="J65" t="n">
-        <v>0.38</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="66">
@@ -2895,18 +2907,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2915,16 +2925,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>686.5</v>
+        <v>280.5</v>
       </c>
       <c r="H66" t="n">
-        <v>687</v>
+        <v>282.9</v>
       </c>
       <c r="I66" t="n">
-        <v>0.5</v>
+        <v>-2.399999999999977</v>
       </c>
       <c r="J66" t="n">
-        <v>0.06999999999999999</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="67">
@@ -2933,18 +2943,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2953,16 +2961,16 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>684.7</v>
+        <v>281.97</v>
       </c>
       <c r="H67" t="n">
-        <v>685.7</v>
+        <v>283.49</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>-1.519999999999982</v>
       </c>
       <c r="J67" t="n">
-        <v>0.15</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="68">
@@ -3007,15 +3015,13 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
-      <c r="D69" t="b">
-        <v>1</v>
-      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>long</t>
@@ -3027,166 +3033,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>153.53</v>
+        <v>156.32</v>
       </c>
       <c r="H69" t="n">
-        <v>154.26</v>
+        <v>157.12</v>
       </c>
       <c r="I69" t="n">
-        <v>0.7299999999999898</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="J69" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>MTLR</t>
-        </is>
-      </c>
-      <c r="C70" t="b">
-        <v>1</v>
-      </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>154.82</v>
-      </c>
-      <c r="H70" t="n">
-        <v>156.08</v>
-      </c>
-      <c r="I70" t="n">
-        <v>-1.260000000000019</v>
-      </c>
-      <c r="J70" t="n">
-        <v>-0.8099999999999999</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>MTLR</t>
-        </is>
-      </c>
-      <c r="C71" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>156.16</v>
-      </c>
-      <c r="H71" t="n">
-        <v>156.37</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.210000000000008</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>MTLR</t>
-        </is>
-      </c>
-      <c r="C72" t="b">
-        <v>1</v>
-      </c>
-      <c r="D72" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>156.83</v>
-      </c>
-      <c r="H72" t="n">
-        <v>156.83</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>MTLR</t>
-        </is>
-      </c>
-      <c r="C73" t="b">
-        <v>1</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>156.08</v>
-      </c>
-      <c r="H73" t="n">
-        <v>156.16</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.07999999999998408</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -3200,7 +3056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3243,45 +3099,45 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.13999999999993</v>
+        <v>-0.2400000000000375</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1628571428571328</v>
+        <v>-0.0480000000000075</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4000000000000001</v>
+        <v>-0.15</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2400000000000375</v>
+        <v>1.47999999999999</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0480000000000075</v>
+        <v>0.2959999999999979</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.15</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -3309,23 +3165,23 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.47999999999999</v>
+        <v>0.7300000000000182</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2959999999999979</v>
+        <v>0.1825000000000045</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.3300000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -3353,67 +3209,67 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.799999999999955</v>
+        <v>-0.9899999999998954</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.449999999999989</v>
+        <v>-0.2474999999999739</v>
       </c>
       <c r="E7" t="n">
-        <v>0.42</v>
+        <v>-0.35</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1400000000000006</v>
+        <v>4.400000000000091</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.03500000000000014</v>
+        <v>1.100000000000023</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.14</v>
+        <v>0.43</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.150000000000006</v>
+        <v>-0.1400000000000006</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2875000000000014</v>
+        <v>-0.03500000000000014</v>
       </c>
       <c r="E9" t="n">
-        <v>0.89</v>
+        <v>-0.14</v>
       </c>
       <c r="F9" t="n">
-        <v>0.22</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="10">
@@ -3441,111 +3297,111 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7300000000000182</v>
+        <v>1.150000000000006</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1825000000000045</v>
+        <v>0.2875000000000014</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.400000000000091</v>
+        <v>5.799999999999955</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>1.100000000000023</v>
+        <v>1.449999999999989</v>
       </c>
       <c r="E12" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="F12" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.7599999999999909</v>
+        <v>0.1799999999999926</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2533333333333303</v>
+        <v>0.05999999999999753</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.46</v>
+        <v>0.36</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.15</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.620000000000005</v>
+        <v>-0.7599999999999909</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8733333333333348</v>
+        <v>-0.2533333333333303</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.08</v>
+        <v>-0.46</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1799999999999926</v>
+        <v>-2.620000000000005</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05999999999999753</v>
+        <v>-0.8733333333333348</v>
       </c>
       <c r="E15" t="n">
-        <v>0.36</v>
+        <v>-2.08</v>
       </c>
       <c r="F15" t="n">
-        <v>0.12</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3595,86 +3451,68 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.218</v>
+        <v>-0.00999999999999801</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.109</v>
+        <v>-0.004999999999999005</v>
       </c>
       <c r="E18" t="n">
-        <v>1.06</v>
+        <v>-0.02</v>
       </c>
       <c r="F18" t="n">
-        <v>0.53</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.00999999999999801</v>
+        <v>-0.0259999999999998</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.004999999999999005</v>
+        <v>-0.0129999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.02</v>
+        <v>-0.21</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.0259999999999998</v>
+        <v>0.218</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0129999999999999</v>
+        <v>0.109</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.21</v>
+        <v>1.06</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
+        <v>0.53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
